--- a/biology/Histoire de la zoologie et de la botanique/Prix_Charles-Bocquet/Prix_Charles-Bocquet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Prix_Charles-Bocquet/Prix_Charles-Bocquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Charles-Bocquet est un prix scientifique décerné par la Société zoologique de France, en hommage à Charles Bocquet, pour des travaux réalisés dans le domaine de la biologie de l'évolution[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Charles-Bocquet est un prix scientifique décerné par la Société zoologique de France, en hommage à Charles Bocquet, pour des travaux réalisés dans le domaine de la biologie de l'évolution.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Lauréats du prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les lauréats du prix, attribué tous les trois ans depuis 1979, sont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les lauréats du prix, attribué tous les trois ans depuis 1979, sont :
 1979 : Jean Génermont
 1982 : Michel Solignac
 1985 : H. Tintant
